--- a/doc/DB定義書/DB定義書_F2_fireworks.xlsx
+++ b/doc/DB定義書/DB定義書_F2_fireworks.xlsx
@@ -1,21 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\DB定義書\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689650D7-3EE8-422B-82F2-E54272826A09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="26715" windowHeight="12510"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="m_user" sheetId="2" r:id="rId2"/>
+    <sheet name="USER" sheetId="2" r:id="rId2"/>
+    <sheet name="MESSAGE" sheetId="5" r:id="rId3"/>
+    <sheet name="LIST" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -158,15 +177,149 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザマスタ</t>
+    <t>Webアプリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memoly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ANSWER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MESSAGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAP_MESSAGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LIST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポット名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポット住所</t>
+    <rPh sb="4" eb="6">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GENRE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADDERSS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACHIEVEMENT_MESSAGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yyyy/mm/dd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル</t>
+  </si>
+  <si>
+    <t>テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REMARKS</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +343,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -248,7 +407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -264,13 +423,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -283,12 +439,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -330,7 +489,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,9 +522,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,6 +574,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -573,63 +766,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="58.625" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="58.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E3" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E5" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -646,34 +851,52 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -682,7 +905,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -691,7 +914,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -700,7 +923,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -709,7 +932,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -718,7 +941,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -727,7 +950,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -736,7 +959,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -745,7 +968,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -754,7 +977,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -763,7 +986,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -772,7 +995,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -781,7 +1004,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -790,7 +1013,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -799,7 +1022,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -808,7 +1031,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -817,7 +1040,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -826,7 +1049,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -835,7 +1058,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -844,7 +1067,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -853,7 +1076,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -862,7 +1085,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -871,7 +1094,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -880,7 +1103,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -889,7 +1112,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -898,7 +1121,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -907,7 +1130,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -916,7 +1139,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -933,80 +1156,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E3" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E5" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1037,19 +1268,547 @@
       <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="6" t="str">
+      <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+        <v>create table USER (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>ID VARCHAR (20),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>PW VARCHAR (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>ANSWER VARCHAR (20)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A352B4D-6664-4516-B210-FE1413523EFF}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table MESSAGE (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1057,17 +1816,25 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+        <v>MAP_MESSAGE VARCHAR (50),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1075,10 +1842,10 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>ACHIEVEMENT_MESSAGE VARCHAR (50)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1096,7 +1863,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1114,7 +1881,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1132,7 +1899,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1150,7 +1917,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1168,7 +1935,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1186,7 +1953,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1204,7 +1971,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1222,7 +1989,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1240,7 +2007,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1258,7 +2025,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1276,7 +2043,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1294,7 +2061,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1312,7 +2079,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1330,7 +2097,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1348,7 +2115,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1366,7 +2133,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1384,7 +2151,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1402,7 +2169,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -1410,5 +2177,538 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB60036-4981-49A0-91D2-1A4106AFD5AD}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table LIST (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>DATE CHAR (10),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>GENRE CHAR (1),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>NAME VARCHAR (20),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>ADDERSS VARCHAR (40),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>REMARKS VARCHAR (200)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/DB定義書/DB定義書_F2_fireworks.xlsx
+++ b/doc/DB定義書/DB定義書_F2_fireworks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\DB定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689650D7-3EE8-422B-82F2-E54272826A09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DA88BD-8EA4-4763-B5C2-454AD29ADF19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -2185,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB60036-4981-49A0-91D2-1A4106AFD5AD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2419,7 +2419,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2428,7 +2428,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>REMARKS VARCHAR (200)</v>
+        <v>REMARKS VARCHAR (100)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/DB定義書/DB定義書_F2_fireworks.xlsx
+++ b/doc/DB定義書/DB定義書_F2_fireworks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\DB定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DA88BD-8EA4-4763-B5C2-454AD29ADF19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772DE845-A0E3-4435-B200-7C4D56543FDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +349,15 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -411,9 +420,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -427,6 +433,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,8 +781,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -785,368 +794,368 @@
     <col min="6" max="6" width="58.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>45084</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>45084</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>9</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>13</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>14</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>15</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>16</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>17</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>18</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>19</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>20</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>21</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>22</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>23</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>24</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>25</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>26</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>27</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>28</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>29</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>30</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>31</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1159,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1176,96 +1185,96 @@
     <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>45084</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>45084</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="L9" t="str">
@@ -1274,390 +1283,390 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>20</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>ID VARCHAR (20),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>20</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>PW VARCHAR (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>20</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>ANSWER VARCHAR (20)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>14</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>16</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>17</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>18</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>19</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>20</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -1679,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A352B4D-6664-4516-B210-FE1413523EFF}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1696,96 +1705,96 @@
     <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>45084</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>45084</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="L9" t="str">
@@ -1794,376 +1803,376 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>50</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>MAP_MESSAGE VARCHAR (50),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>50</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>ACHIEVEMENT_MESSAGE VARCHAR (50)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>14</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>16</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>17</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>18</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>19</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>20</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -2185,8 +2194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB60036-4981-49A0-91D2-1A4106AFD5AD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2202,96 +2211,96 @@
     <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>45084</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>45084</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="L9" t="str">
@@ -2300,26 +2309,26 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="L10" t="str">
@@ -2328,374 +2337,374 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>GENRE CHAR (1),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>20</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>NAME VARCHAR (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>40</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>ADDERSS VARCHAR (40),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>100</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>REMARKS VARCHAR (100)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>14</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>16</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>17</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>18</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>19</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>20</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>

--- a/doc/DB定義書/DB定義書_F2_fireworks.xlsx
+++ b/doc/DB定義書/DB定義書_F2_fireworks.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\DB定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772DE845-A0E3-4435-B200-7C4D56543FDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ED9B8A-9789-456D-9A4A-102CC45A84B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="USER" sheetId="2" r:id="rId2"/>
     <sheet name="MESSAGE" sheetId="5" r:id="rId3"/>
-    <sheet name="LIST" sheetId="7" r:id="rId4"/>
+    <sheet name="SPOT" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -312,6 +312,14 @@
   </si>
   <si>
     <t>REMARKS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPOT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -781,8 +789,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2194,8 +2202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB60036-4981-49A0-91D2-1A4106AFD5AD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2249,7 +2257,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>5</v>
@@ -2263,7 +2271,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
@@ -2305,7 +2313,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table LIST (</v>
+        <v>create table SPOT (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/DB定義書/DB定義書_F2_fireworks.xlsx
+++ b/doc/DB定義書/DB定義書_F2_fireworks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\DB定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ED9B8A-9789-456D-9A4A-102CC45A84B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E04988-64CC-4D0B-86E5-388DFFC9F81B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2203,7 +2203,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2327,11 +2327,9 @@
         <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2341,7 +2339,7 @@
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>DATE CHAR (10),</v>
+        <v>DATE DATE ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/DB定義書/DB定義書_F2_fireworks.xlsx
+++ b/doc/DB定義書/DB定義書_F2_fireworks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\DB定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E04988-64CC-4D0B-86E5-388DFFC9F81B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5823F93E-2D95-4C02-8BF1-99941C4E134E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="53">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -281,10 +281,6 @@
   </si>
   <si>
     <t>ADDERSS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CHAR</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -873,13 +869,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -894,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -903,13 +899,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -1195,7 +1191,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1231,7 +1227,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>5</v>
@@ -1844,7 +1840,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
@@ -2203,7 +2199,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2221,7 +2217,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2257,7 +2253,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>5</v>
@@ -2271,7 +2267,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
@@ -2335,7 +2331,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2353,10 +2349,10 @@
         <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2365,7 +2361,7 @@
       <c r="J11" s="2"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>GENRE CHAR (1),</v>
+        <v>GENRE VARCHAR (40),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2428,7 +2424,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>32</v>
